--- a/Products.xlsx
+++ b/Products.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -507,7 +507,7 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>530</v>
@@ -536,7 +536,7 @@
         <v>17</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>340</v>
@@ -565,7 +565,7 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>346</v>
@@ -594,7 +594,7 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>469</v>
